--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1132038.016908107</v>
+        <v>-1134610.762852972</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13167368.82273057</v>
+        <v>13167368.82273056</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>258.7291932782044</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>340.353440299336</v>
+        <v>92.18587907658573</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>370.2816430040588</v>
+        <v>370.2816430040586</v>
       </c>
       <c r="H11" t="n">
-        <v>262.625320218258</v>
+        <v>262.6253202182579</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.95923584271598</v>
+        <v>88.95923584271586</v>
       </c>
       <c r="T11" t="n">
-        <v>166.4420886499519</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>286.1753286972091</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831278</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>124.9562538769415</v>
+        <v>124.9562538769413</v>
       </c>
       <c r="C12" t="n">
-        <v>131.13156921539</v>
+        <v>131.1315692153897</v>
       </c>
       <c r="D12" t="n">
-        <v>105.868135791713</v>
+        <v>105.8681357917127</v>
       </c>
       <c r="E12" t="n">
-        <v>116.0681506824751</v>
+        <v>116.0681506824749</v>
       </c>
       <c r="F12" t="n">
-        <v>103.4922826204581</v>
+        <v>103.4922826204578</v>
       </c>
       <c r="G12" t="n">
-        <v>93.92379679477349</v>
+        <v>93.92379679477325</v>
       </c>
       <c r="H12" t="n">
-        <v>52.86103687007946</v>
+        <v>52.86103687007926</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>95.87721426077798</v>
+        <v>95.87721426077778</v>
       </c>
       <c r="T12" t="n">
-        <v>151.1600596356022</v>
+        <v>151.160059635602</v>
       </c>
       <c r="U12" t="n">
-        <v>184.2432160846601</v>
+        <v>184.2432160846599</v>
       </c>
       <c r="V12" t="n">
-        <v>191.2236573764995</v>
+        <v>191.2236573764992</v>
       </c>
       <c r="W12" t="n">
-        <v>210.1180533879938</v>
+        <v>210.1180533879936</v>
       </c>
       <c r="X12" t="n">
-        <v>164.1960554305517</v>
+        <v>164.1960554305514</v>
       </c>
       <c r="Y12" t="n">
-        <v>164.1057660043786</v>
+        <v>164.1057660043783</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090115</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
-        <v>125.669891325702</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452866</v>
+        <v>107.0385432452863</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736434</v>
+        <v>104.8570328736431</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.8441182500052</v>
       </c>
       <c r="G13" t="n">
-        <v>124.8691158536044</v>
+        <v>124.8691158536042</v>
       </c>
       <c r="H13" t="n">
-        <v>106.9143773724581</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>67.41317437960828</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.25062307589248</v>
+        <v>19.87182313254503</v>
       </c>
       <c r="S13" t="n">
-        <v>155.5156867721643</v>
+        <v>155.5156867721641</v>
       </c>
       <c r="T13" t="n">
-        <v>179.7675791643882</v>
+        <v>179.767579164388</v>
       </c>
       <c r="U13" t="n">
-        <v>244.6578304709145</v>
+        <v>244.6578304709142</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509022</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W13" t="n">
-        <v>128.0838351182548</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980818</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D14" t="n">
-        <v>313.1061118477572</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E14" t="n">
-        <v>340.353440299336</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
-        <v>290.29175736736</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143947</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201525003</v>
+        <v>67.61083201524984</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666944</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>209.4182421859762</v>
+        <v>209.4182421859759</v>
       </c>
       <c r="V14" t="n">
-        <v>286.1753286972091</v>
+        <v>28.30641866018231</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444872</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055433</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831278</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090115</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
-        <v>125.669891325702</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452866</v>
+        <v>107.0385432452863</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736434</v>
+        <v>104.8570328736431</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500055</v>
+        <v>103.8441182500052</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861024</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.1780851413947</v>
       </c>
       <c r="I16" t="n">
-        <v>54.7754906369123</v>
+        <v>54.77549063691208</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712155</v>
+        <v>47.35522289712134</v>
       </c>
       <c r="S16" t="n">
-        <v>122.6726109337387</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032434</v>
+        <v>177.9720195032432</v>
       </c>
       <c r="U16" t="n">
-        <v>244.6349084326871</v>
+        <v>244.6349084326868</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509022</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636652</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161114</v>
+        <v>55.43515584994384</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.007723579169</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>267.5881715429026</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925788</v>
       </c>
       <c r="E17" t="n">
         <v>284.2456498441568</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U17" t="n">
-        <v>153.310451730799</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V17" t="n">
         <v>230.0675382420299</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333689</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480642</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353742</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
         <v>256.998321392578</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
         <v>153.310451730797</v>
@@ -2147,7 +2147,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2220,7 +2220,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G22" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
         <v>154.452923095723</v>
@@ -2302,7 +2302,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
         <v>120.8999331239898</v>
@@ -2318,7 +2318,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
         <v>256.998321392578</v>
@@ -2333,7 +2333,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
         <v>153.310451730797</v>
@@ -2384,7 +2384,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G25" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
         <v>154.452923095723</v>
@@ -2539,7 +2539,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
         <v>120.8999331239898</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>326.6260512083014</v>
+        <v>326.6260512083016</v>
       </c>
       <c r="C26" t="n">
-        <v>309.1651013158283</v>
+        <v>309.1651013158286</v>
       </c>
       <c r="D26" t="n">
-        <v>298.5752511655037</v>
+        <v>298.575251165504</v>
       </c>
       <c r="E26" t="n">
-        <v>325.8225796170826</v>
+        <v>325.8225796170828</v>
       </c>
       <c r="F26" t="n">
-        <v>350.7682552865322</v>
+        <v>350.7682552865325</v>
       </c>
       <c r="G26" t="n">
-        <v>354.8139351982742</v>
+        <v>354.8139351982745</v>
       </c>
       <c r="H26" t="n">
-        <v>238.4999739321412</v>
+        <v>238.4999739321415</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.07997133299662</v>
+        <v>53.07997133299688</v>
       </c>
       <c r="T26" t="n">
-        <v>147.810179684441</v>
+        <v>147.8101796844412</v>
       </c>
       <c r="U26" t="n">
-        <v>194.8873815037227</v>
+        <v>194.887381503723</v>
       </c>
       <c r="V26" t="n">
-        <v>271.6444680149557</v>
+        <v>271.6444680149559</v>
       </c>
       <c r="W26" t="n">
-        <v>293.1331782622338</v>
+        <v>293.133178262234</v>
       </c>
       <c r="X26" t="n">
-        <v>313.6233102232898</v>
+        <v>313.62331022329</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.1301482008744</v>
+        <v>330.1301482008746</v>
       </c>
     </row>
     <row r="27">
@@ -2694,13 +2694,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609189</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.7241897267581</v>
+        <v>123.7241897267583</v>
       </c>
       <c r="C28" t="n">
-        <v>111.1390306434486</v>
+        <v>111.1390306434489</v>
       </c>
       <c r="D28" t="n">
-        <v>92.50768256303313</v>
+        <v>92.5076825630334</v>
       </c>
       <c r="E28" t="n">
-        <v>90.32617219138994</v>
+        <v>90.32617219139021</v>
       </c>
       <c r="F28" t="n">
-        <v>89.31325756775202</v>
+        <v>89.31325756775229</v>
       </c>
       <c r="G28" t="n">
-        <v>109.918017803849</v>
+        <v>109.9180178038493</v>
       </c>
       <c r="H28" t="n">
-        <v>88.64722445914155</v>
+        <v>88.64722445914182</v>
       </c>
       <c r="I28" t="n">
-        <v>40.24462995465888</v>
+        <v>40.24462995465915</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>32.82436221486812</v>
+        <v>32.82436221486839</v>
       </c>
       <c r="S28" t="n">
-        <v>133.6612348762627</v>
+        <v>133.6612348762629</v>
       </c>
       <c r="T28" t="n">
-        <v>163.44115882099</v>
+        <v>163.4411588209902</v>
       </c>
       <c r="U28" t="n">
-        <v>230.1040477504336</v>
+        <v>230.1040477504339</v>
       </c>
       <c r="V28" t="n">
-        <v>196.0298528686488</v>
+        <v>196.029852868649</v>
       </c>
       <c r="W28" t="n">
-        <v>230.4152078814118</v>
+        <v>230.415207881412</v>
       </c>
       <c r="X28" t="n">
-        <v>169.6018649338579</v>
+        <v>169.6018649338582</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.4768628969156</v>
+        <v>162.4768628969158</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>326.6260512083014</v>
+        <v>326.6260512083016</v>
       </c>
       <c r="C29" t="n">
-        <v>309.1651013158283</v>
+        <v>309.1651013158286</v>
       </c>
       <c r="D29" t="n">
-        <v>298.5752511655037</v>
+        <v>298.575251165504</v>
       </c>
       <c r="E29" t="n">
-        <v>325.8225796170826</v>
+        <v>325.8225796170828</v>
       </c>
       <c r="F29" t="n">
-        <v>350.7682552865322</v>
+        <v>350.7682552865325</v>
       </c>
       <c r="G29" t="n">
-        <v>354.8139351982742</v>
+        <v>354.8139351982745</v>
       </c>
       <c r="H29" t="n">
-        <v>238.4999739321412</v>
+        <v>238.4999739321415</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.07997133299662</v>
+        <v>53.07997133299688</v>
       </c>
       <c r="T29" t="n">
-        <v>147.8101796844409</v>
+        <v>147.8101796844412</v>
       </c>
       <c r="U29" t="n">
-        <v>194.8873815037227</v>
+        <v>194.887381503723</v>
       </c>
       <c r="V29" t="n">
-        <v>271.6444680149557</v>
+        <v>271.6444680149559</v>
       </c>
       <c r="W29" t="n">
-        <v>293.1331782622338</v>
+        <v>293.133178262234</v>
       </c>
       <c r="X29" t="n">
-        <v>313.6233102232898</v>
+        <v>313.62331022329</v>
       </c>
       <c r="Y29" t="n">
-        <v>330.1301482008744</v>
+        <v>330.1301482008746</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851041</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.7241897267581</v>
+        <v>123.7241897267583</v>
       </c>
       <c r="C31" t="n">
-        <v>111.1390306434486</v>
+        <v>111.1390306434489</v>
       </c>
       <c r="D31" t="n">
-        <v>92.50768256303313</v>
+        <v>92.5076825630334</v>
       </c>
       <c r="E31" t="n">
-        <v>90.32617219138994</v>
+        <v>90.32617219139021</v>
       </c>
       <c r="F31" t="n">
-        <v>89.31325756775202</v>
+        <v>89.31325756775229</v>
       </c>
       <c r="G31" t="n">
-        <v>109.918017803849</v>
+        <v>109.9180178038493</v>
       </c>
       <c r="H31" t="n">
-        <v>88.64722445914155</v>
+        <v>88.64722445914182</v>
       </c>
       <c r="I31" t="n">
-        <v>40.24462995465888</v>
+        <v>40.24462995465914</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.82436221486812</v>
+        <v>32.82436221486837</v>
       </c>
       <c r="S31" t="n">
-        <v>133.6612348762627</v>
+        <v>133.6612348762629</v>
       </c>
       <c r="T31" t="n">
-        <v>163.44115882099</v>
+        <v>163.4411588209902</v>
       </c>
       <c r="U31" t="n">
-        <v>230.1040477504336</v>
+        <v>230.1040477504339</v>
       </c>
       <c r="V31" t="n">
-        <v>196.0298528686488</v>
+        <v>196.029852868649</v>
       </c>
       <c r="W31" t="n">
-        <v>230.4152078814118</v>
+        <v>230.415207881412</v>
       </c>
       <c r="X31" t="n">
-        <v>169.6018649338579</v>
+        <v>169.6018649338582</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.4768628969156</v>
+        <v>162.4768628969158</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>326.6260512083014</v>
+        <v>326.6260512083016</v>
       </c>
       <c r="C32" t="n">
-        <v>309.1651013158284</v>
+        <v>309.1651013158286</v>
       </c>
       <c r="D32" t="n">
-        <v>298.5752511655038</v>
+        <v>298.575251165504</v>
       </c>
       <c r="E32" t="n">
-        <v>325.8225796170826</v>
+        <v>325.8225796170829</v>
       </c>
       <c r="F32" t="n">
-        <v>350.7682552865323</v>
+        <v>350.7682552865325</v>
       </c>
       <c r="G32" t="n">
-        <v>354.8139351982743</v>
+        <v>354.8139351982745</v>
       </c>
       <c r="H32" t="n">
-        <v>238.4999739321413</v>
+        <v>238.4999739321416</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.07997133299668</v>
+        <v>53.07997133299695</v>
       </c>
       <c r="T32" t="n">
-        <v>147.810179684441</v>
+        <v>147.8101796844413</v>
       </c>
       <c r="U32" t="n">
-        <v>194.8873815037228</v>
+        <v>194.8873815037231</v>
       </c>
       <c r="V32" t="n">
-        <v>271.6444680149557</v>
+        <v>271.644468014956</v>
       </c>
       <c r="W32" t="n">
-        <v>293.1331782622339</v>
+        <v>293.1331782622341</v>
       </c>
       <c r="X32" t="n">
-        <v>313.6233102232899</v>
+        <v>313.6233102232901</v>
       </c>
       <c r="Y32" t="n">
-        <v>330.1301482008744</v>
+        <v>330.1301482008747</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247671</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.7241897267581</v>
+        <v>123.7241897267584</v>
       </c>
       <c r="C34" t="n">
-        <v>111.1390306434487</v>
+        <v>111.1390306434489</v>
       </c>
       <c r="D34" t="n">
-        <v>92.50768256303319</v>
+        <v>92.50768256303346</v>
       </c>
       <c r="E34" t="n">
-        <v>90.32617219139</v>
+        <v>90.32617219139027</v>
       </c>
       <c r="F34" t="n">
-        <v>89.31325756775207</v>
+        <v>89.31325756775234</v>
       </c>
       <c r="G34" t="n">
-        <v>109.9180178038491</v>
+        <v>109.9180178038493</v>
       </c>
       <c r="H34" t="n">
-        <v>88.64722445914161</v>
+        <v>88.64722445914188</v>
       </c>
       <c r="I34" t="n">
-        <v>40.24462995465894</v>
+        <v>40.24462995465921</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.82436221486817</v>
+        <v>32.82436221486844</v>
       </c>
       <c r="S34" t="n">
-        <v>133.6612348762627</v>
+        <v>133.661234876263</v>
       </c>
       <c r="T34" t="n">
-        <v>163.44115882099</v>
+        <v>163.4411588209903</v>
       </c>
       <c r="U34" t="n">
-        <v>230.1040477504337</v>
+        <v>230.1040477504339</v>
       </c>
       <c r="V34" t="n">
-        <v>196.0298528686488</v>
+        <v>196.0298528686491</v>
       </c>
       <c r="W34" t="n">
-        <v>230.4152078814118</v>
+        <v>230.4152078814121</v>
       </c>
       <c r="X34" t="n">
-        <v>169.601864933858</v>
+        <v>169.6018649338583</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.4768628969156</v>
+        <v>162.4768628969159</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3281,7 +3281,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3399,7 +3399,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969275</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
@@ -3487,7 +3487,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3633,7 +3633,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189221</v>
       </c>
       <c r="U39" t="n">
         <v>225.7871683969286</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,7 +3724,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933827</v>
       </c>
       <c r="G42" t="n">
         <v>134.9994691657081</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092323</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
@@ -3961,7 +3961,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4071,7 +4071,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I45" t="n">
         <v>18.81721868247745</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092316</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775078</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1288.099721749451</v>
+        <v>1103.048416190992</v>
       </c>
       <c r="C11" t="n">
-        <v>1026.757102276517</v>
+        <v>776.0827980111117</v>
       </c>
       <c r="D11" t="n">
-        <v>1026.757102276517</v>
+        <v>776.0827980111117</v>
       </c>
       <c r="E11" t="n">
-        <v>682.9657484388042</v>
+        <v>682.9657484388035</v>
       </c>
       <c r="F11" t="n">
-        <v>682.9657484388042</v>
+        <v>682.9657484388035</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9438868185427</v>
+        <v>308.9438868185424</v>
       </c>
       <c r="H11" t="n">
-        <v>43.66578558797902</v>
+        <v>43.6657855879789</v>
       </c>
       <c r="I11" t="n">
-        <v>43.66578558797902</v>
+        <v>43.6657855879789</v>
       </c>
       <c r="J11" t="n">
-        <v>153.826325281711</v>
+        <v>153.8263252817105</v>
       </c>
       <c r="K11" t="n">
-        <v>369.6669363545816</v>
+        <v>369.6669363545802</v>
       </c>
       <c r="L11" t="n">
-        <v>674.3380621808158</v>
+        <v>674.3380621808138</v>
       </c>
       <c r="M11" t="n">
-        <v>1045.0128309478</v>
+        <v>1045.012830947797</v>
       </c>
       <c r="N11" t="n">
-        <v>1426.299313380806</v>
+        <v>1426.299313380802</v>
       </c>
       <c r="O11" t="n">
-        <v>1773.002065483133</v>
+        <v>1773.002065483129</v>
       </c>
       <c r="P11" t="n">
-        <v>2034.403842291856</v>
+        <v>2034.403842291851</v>
       </c>
       <c r="Q11" t="n">
-        <v>2182.532943734426</v>
+        <v>2182.532943734421</v>
       </c>
       <c r="R11" t="n">
-        <v>2183.289279398951</v>
+        <v>2183.289279398945</v>
       </c>
       <c r="S11" t="n">
-        <v>2093.43146541641</v>
+        <v>2093.431465416404</v>
       </c>
       <c r="T11" t="n">
-        <v>1925.308143547771</v>
+        <v>2093.431465416404</v>
       </c>
       <c r="U11" t="n">
-        <v>1925.308143547771</v>
+        <v>2093.431465416404</v>
       </c>
       <c r="V11" t="n">
-        <v>1636.242154964732</v>
+        <v>2093.431465416404</v>
       </c>
       <c r="W11" t="n">
-        <v>1636.242154964732</v>
+        <v>1782.659708906821</v>
       </c>
       <c r="X11" t="n">
-        <v>1636.242154964732</v>
+        <v>1451.190849406272</v>
       </c>
       <c r="Y11" t="n">
-        <v>1288.099721749451</v>
+        <v>1103.048416190992</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.1051512191802</v>
+        <v>653.1051512191787</v>
       </c>
       <c r="C12" t="n">
-        <v>520.6490206985843</v>
+        <v>520.6490206985829</v>
       </c>
       <c r="D12" t="n">
-        <v>413.7115097978641</v>
+        <v>413.7115097978631</v>
       </c>
       <c r="E12" t="n">
-        <v>296.4709535529397</v>
+        <v>296.4709535529389</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9332943403558</v>
+        <v>191.9332943403552</v>
       </c>
       <c r="G12" t="n">
-        <v>97.06077232543302</v>
+        <v>97.06077232543271</v>
       </c>
       <c r="H12" t="n">
-        <v>43.66578558797902</v>
+        <v>43.6657855879789</v>
       </c>
       <c r="I12" t="n">
-        <v>49.11227720096708</v>
+        <v>49.1122772009671</v>
       </c>
       <c r="J12" t="n">
-        <v>101.3238350117117</v>
+        <v>137.0664534855097</v>
       </c>
       <c r="K12" t="n">
-        <v>259.4553768367103</v>
+        <v>331.5687276688703</v>
       </c>
       <c r="L12" t="n">
-        <v>559.5664510951013</v>
+        <v>590.5186414520642</v>
       </c>
       <c r="M12" t="n">
-        <v>881.1056547739867</v>
+        <v>953.2190056061456</v>
       </c>
       <c r="N12" t="n">
-        <v>1266.724849795435</v>
+        <v>1297.677040152396</v>
       </c>
       <c r="O12" t="n">
-        <v>1600.778021342373</v>
+        <v>1631.730211699335</v>
       </c>
       <c r="P12" t="n">
-        <v>1857.677776275188</v>
+        <v>1847.468806156952</v>
       </c>
       <c r="Q12" t="n">
-        <v>1951.974116933731</v>
+        <v>1941.765146815495</v>
       </c>
       <c r="R12" t="n">
-        <v>1951.974116933731</v>
+        <v>1951.974116933728</v>
       </c>
       <c r="S12" t="n">
-        <v>1855.128445963248</v>
+        <v>1855.128445963245</v>
       </c>
       <c r="T12" t="n">
-        <v>1702.441517038398</v>
+        <v>1702.441517038395</v>
       </c>
       <c r="U12" t="n">
-        <v>1516.337258367024</v>
+        <v>1516.337258367021</v>
       </c>
       <c r="V12" t="n">
-        <v>1323.182048895812</v>
+        <v>1323.18204889581</v>
       </c>
       <c r="W12" t="n">
-        <v>1110.941590928142</v>
+        <v>1110.941590928139</v>
       </c>
       <c r="X12" t="n">
-        <v>945.08698948314</v>
+        <v>945.0869894831379</v>
       </c>
       <c r="Y12" t="n">
-        <v>779.3235894787172</v>
+        <v>779.3235894787153</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.8598613963657</v>
+        <v>615.6644740205451</v>
       </c>
       <c r="C13" t="n">
-        <v>559.9205772289898</v>
+        <v>488.7251898531695</v>
       </c>
       <c r="D13" t="n">
-        <v>451.8008365771852</v>
+        <v>380.6054492013652</v>
       </c>
       <c r="E13" t="n">
-        <v>345.8846417553232</v>
+        <v>274.6892543795034</v>
       </c>
       <c r="F13" t="n">
-        <v>345.8846417553232</v>
+        <v>169.7962056421245</v>
       </c>
       <c r="G13" t="n">
-        <v>219.7542217011773</v>
+        <v>43.6657855879789</v>
       </c>
       <c r="H13" t="n">
-        <v>111.7599011229368</v>
+        <v>43.6657855879789</v>
       </c>
       <c r="I13" t="n">
-        <v>43.66578558797902</v>
+        <v>43.6657855879789</v>
       </c>
       <c r="J13" t="n">
-        <v>100.5359044465449</v>
+        <v>100.5359044465448</v>
       </c>
       <c r="K13" t="n">
-        <v>297.3485458605398</v>
+        <v>297.3485458605397</v>
       </c>
       <c r="L13" t="n">
-        <v>593.2164476110858</v>
+        <v>593.2164476110854</v>
       </c>
       <c r="M13" t="n">
-        <v>913.3192773353012</v>
+        <v>913.3192773353007</v>
       </c>
       <c r="N13" t="n">
-        <v>1232.224114051915</v>
+        <v>1232.224114051914</v>
       </c>
       <c r="O13" t="n">
         <v>1513.910218138237</v>
       </c>
       <c r="P13" t="n">
-        <v>1737.361337611876</v>
+        <v>1737.361337611875</v>
       </c>
       <c r="Q13" t="n">
         <v>1821.29553671104</v>
       </c>
       <c r="R13" t="n">
-        <v>1754.37571542226</v>
+        <v>1801.222988092308</v>
       </c>
       <c r="S13" t="n">
-        <v>1597.289163127144</v>
+        <v>1644.136435797192</v>
       </c>
       <c r="T13" t="n">
-        <v>1415.705749829782</v>
+        <v>1462.553022499831</v>
       </c>
       <c r="U13" t="n">
-        <v>1168.57662814199</v>
+        <v>1215.423900812038</v>
       </c>
       <c r="V13" t="n">
-        <v>955.8890386966343</v>
+        <v>1002.736311366683</v>
       </c>
       <c r="W13" t="n">
-        <v>826.5114274660743</v>
+        <v>755.3160400902534</v>
       </c>
       <c r="X13" t="n">
-        <v>826.5114274660743</v>
+        <v>755.3160400902534</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.5114274660743</v>
+        <v>755.3160400902534</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1602.348587267466</v>
+        <v>1682.20014132117</v>
       </c>
       <c r="C14" t="n">
-        <v>1275.382969087585</v>
+        <v>1355.234523141289</v>
       </c>
       <c r="D14" t="n">
-        <v>959.114169241366</v>
+        <v>1038.96572329507</v>
       </c>
       <c r="E14" t="n">
-        <v>615.3228154036528</v>
+        <v>695.1743694573571</v>
       </c>
       <c r="F14" t="n">
-        <v>322.0988180628851</v>
+        <v>695.1743694573571</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0988180628851</v>
+        <v>322.0988180628849</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3257.312051896797</v>
+        <v>3257.312051896796</v>
       </c>
       <c r="T14" t="n">
-        <v>3093.33120304155</v>
+        <v>3257.312051896796</v>
       </c>
       <c r="U14" t="n">
-        <v>2881.797625075917</v>
+        <v>3045.778473931164</v>
       </c>
       <c r="V14" t="n">
-        <v>2592.731636492878</v>
+        <v>3017.186131850172</v>
       </c>
       <c r="W14" t="n">
-        <v>2281.959879983295</v>
+        <v>2706.414375340589</v>
       </c>
       <c r="X14" t="n">
-        <v>1950.491020482746</v>
+        <v>2374.945515840041</v>
       </c>
       <c r="Y14" t="n">
-        <v>1602.348587267466</v>
+        <v>2026.80308262476</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,37 +5370,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>693.4151010964783</v>
+        <v>797.635389118088</v>
       </c>
       <c r="C16" t="n">
-        <v>566.4758169291025</v>
+        <v>670.6961049507124</v>
       </c>
       <c r="D16" t="n">
-        <v>458.3560762772979</v>
+        <v>562.5763642989081</v>
       </c>
       <c r="E16" t="n">
-        <v>352.4398814554361</v>
+        <v>456.6601694770463</v>
       </c>
       <c r="F16" t="n">
-        <v>247.546832718057</v>
+        <v>351.7671207396673</v>
       </c>
       <c r="G16" t="n">
-        <v>121.840894853307</v>
+        <v>226.0611828749176</v>
       </c>
       <c r="H16" t="n">
-        <v>121.840894853307</v>
+        <v>121.8408948533067</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543155</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783884</v>
+        <v>397.9442527783887</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020811</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
@@ -5455,31 +5455,31 @@
         <v>2137.812375262354</v>
       </c>
       <c r="Q16" t="n">
-        <v>2256.583831890065</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408124</v>
+        <v>2208.750273408125</v>
       </c>
       <c r="S16" t="n">
-        <v>2084.838545192226</v>
+        <v>2059.061287995482</v>
       </c>
       <c r="T16" t="n">
-        <v>1905.068828522283</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U16" t="n">
-        <v>1657.962860408458</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V16" t="n">
-        <v>1445.275270963102</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W16" t="n">
-        <v>1197.854999686672</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X16" t="n">
-        <v>1011.862347549186</v>
+        <v>1116.082635570795</v>
       </c>
       <c r="Y16" t="n">
-        <v>833.066667166187</v>
+        <v>937.2869551877964</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C17" t="n">
         <v>1440.850850103805</v>
@@ -5498,25 +5498,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5531,19 +5531,19 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U17" t="n">
         <v>3051.821232515854</v>
@@ -5552,10 +5552,10 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y17" t="n">
         <v>1999.070337960652</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5665,37 +5665,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226769</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>176.3617198155311</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K19" t="n">
-        <v>371.3804471090255</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L19" t="n">
-        <v>602.6554402005002</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M19" t="n">
-        <v>866.795794525522</v>
+        <v>886.6195415621438</v>
       </c>
       <c r="N19" t="n">
-        <v>1038.104631555369</v>
+        <v>1154.636251617815</v>
       </c>
       <c r="O19" t="n">
-        <v>1272.730853799383</v>
+        <v>1292.554600836005</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.681856552142</v>
+        <v>1477.054771460443</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S19" t="n">
         <v>1396.961089219653</v>
@@ -5704,16 +5704,16 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V19" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X19" t="n">
-        <v>607.357570643175</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y19" t="n">
         <v>485.2364260734884</v>
@@ -5735,19 +5735,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G20" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
@@ -5762,22 +5762,22 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T20" t="n">
         <v>3206.680274668174</v>
@@ -5786,16 +5786,16 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W20" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F22" t="n">
         <v>183.0892706919198</v>
@@ -5902,58 +5902,58 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>175.0427429954468</v>
       </c>
       <c r="K22" t="n">
-        <v>370.0614702889412</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L22" t="n">
-        <v>622.4791872371225</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M22" t="n">
-        <v>886.6195415621443</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N22" t="n">
-        <v>1134.812504581193</v>
+        <v>1057.928378591991</v>
       </c>
       <c r="O22" t="n">
-        <v>1272.730853799382</v>
+        <v>1292.554600836005</v>
       </c>
       <c r="P22" t="n">
-        <v>1468.389729577965</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="23">
@@ -6005,7 +6005,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052367</v>
@@ -6017,13 +6017,13 @@
         <v>3313.986587710108</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U23" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W23" t="n">
         <v>2565.332559049857</v>
@@ -6060,7 +6060,7 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218339</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226764</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J25" t="n">
         <v>176.361719815531</v>
       </c>
       <c r="K25" t="n">
-        <v>371.3804471090253</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L25" t="n">
-        <v>527.0902910313825</v>
+        <v>611.3204820829774</v>
       </c>
       <c r="M25" t="n">
-        <v>791.2306453564042</v>
+        <v>875.4608364079991</v>
       </c>
       <c r="N25" t="n">
-        <v>962.5394823862517</v>
+        <v>1143.47754646367</v>
       </c>
       <c r="O25" t="n">
-        <v>1197.165704630265</v>
+        <v>1378.103768707684</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552141</v>
+        <v>1477.054771460443</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1975.122438965139</v>
+        <v>1975.122438965142</v>
       </c>
       <c r="C26" t="n">
-        <v>1662.83445783804</v>
+        <v>1662.834457838042</v>
       </c>
       <c r="D26" t="n">
-        <v>1361.243295044602</v>
+        <v>1361.243295044604</v>
       </c>
       <c r="E26" t="n">
-        <v>1032.12957825967</v>
+        <v>1032.129578259672</v>
       </c>
       <c r="F26" t="n">
-        <v>677.8182092833749</v>
+        <v>677.8182092833763</v>
       </c>
       <c r="G26" t="n">
-        <v>319.4202949416842</v>
+        <v>319.4202949416845</v>
       </c>
       <c r="H26" t="n">
-        <v>78.51123036376372</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="I26" t="n">
-        <v>92.89678243919442</v>
+        <v>92.89678243919425</v>
       </c>
       <c r="J26" t="n">
-        <v>337.3226259488472</v>
+        <v>337.3226259488468</v>
       </c>
       <c r="K26" t="n">
-        <v>726.688712189321</v>
+        <v>726.6887121893203</v>
       </c>
       <c r="L26" t="n">
-        <v>1233.269637988357</v>
+        <v>1233.269637988356</v>
       </c>
       <c r="M26" t="n">
-        <v>1822.348255210909</v>
+        <v>1822.348255210908</v>
       </c>
       <c r="N26" t="n">
-        <v>2424.673784820318</v>
+        <v>2424.673784820317</v>
       </c>
       <c r="O26" t="n">
-        <v>3056.84358586664</v>
+        <v>2991.784330192393</v>
       </c>
       <c r="P26" t="n">
-        <v>3507.164664774446</v>
+        <v>3442.105409100198</v>
       </c>
       <c r="Q26" t="n">
-        <v>3810.997739080755</v>
+        <v>3745.938483406508</v>
       </c>
       <c r="R26" t="n">
-        <v>3925.561518188185</v>
+        <v>3925.56151818819</v>
       </c>
       <c r="S26" t="n">
-        <v>3871.945385528593</v>
+        <v>3871.945385528597</v>
       </c>
       <c r="T26" t="n">
-        <v>3722.642173726127</v>
+        <v>3722.642173726131</v>
       </c>
       <c r="U26" t="n">
-        <v>3525.786232813276</v>
+        <v>3525.78623281328</v>
       </c>
       <c r="V26" t="n">
-        <v>3251.397881283017</v>
+        <v>3251.397881283021</v>
       </c>
       <c r="W26" t="n">
-        <v>2955.303761826216</v>
+        <v>2955.303761826219</v>
       </c>
       <c r="X26" t="n">
-        <v>2638.512539378448</v>
+        <v>2638.512539378451</v>
       </c>
       <c r="Y26" t="n">
-        <v>2305.047743215949</v>
+        <v>2305.047743215951</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>630.1555294703107</v>
       </c>
       <c r="E27" t="n">
-        <v>470.9180744648552</v>
+        <v>470.9180744648553</v>
       </c>
       <c r="F27" t="n">
         <v>324.3835164917402</v>
@@ -6297,19 +6297,19 @@
         <v>188.0204163243583</v>
       </c>
       <c r="H27" t="n">
-        <v>97.51852196222578</v>
+        <v>97.51852196222586</v>
       </c>
       <c r="I27" t="n">
-        <v>78.51123036376372</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="J27" t="n">
-        <v>172.188499854381</v>
+        <v>172.1884998543811</v>
       </c>
       <c r="K27" t="n">
-        <v>410.4526988347281</v>
+        <v>410.4526988347282</v>
       </c>
       <c r="L27" t="n">
-        <v>777.1508591473934</v>
+        <v>777.1508591473935</v>
       </c>
       <c r="M27" t="n">
         <v>1224.427184369709</v>
@@ -6342,10 +6342,10 @@
         <v>1791.607461131445</v>
       </c>
       <c r="W27" t="n">
-        <v>1537.370104403243</v>
+        <v>1537.370104403244</v>
       </c>
       <c r="X27" t="n">
-        <v>1329.51860419771</v>
+        <v>1329.518604197711</v>
       </c>
       <c r="Y27" t="n">
         <v>1121.758305432757</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>706.8910436802012</v>
+        <v>706.8910436802032</v>
       </c>
       <c r="C28" t="n">
-        <v>594.6293965656066</v>
+        <v>594.6293965656084</v>
       </c>
       <c r="D28" t="n">
-        <v>501.1872929665833</v>
+        <v>501.1872929665848</v>
       </c>
       <c r="E28" t="n">
-        <v>409.9487351975026</v>
+        <v>409.9487351975038</v>
       </c>
       <c r="F28" t="n">
-        <v>319.7333235129046</v>
+        <v>319.7333235129055</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7050227009359</v>
+        <v>208.7050227009365</v>
       </c>
       <c r="H28" t="n">
-        <v>119.162371732106</v>
+        <v>119.1623717321064</v>
       </c>
       <c r="I28" t="n">
-        <v>78.51123036376372</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="J28" t="n">
-        <v>179.1805753613267</v>
+        <v>179.1805753613265</v>
       </c>
       <c r="K28" t="n">
-        <v>438.7144708608304</v>
+        <v>438.71447086083</v>
       </c>
       <c r="L28" t="n">
-        <v>810.8209818599539</v>
+        <v>810.8209818599532</v>
       </c>
       <c r="M28" t="n">
-        <v>1033.800175709779</v>
+        <v>1033.800175709778</v>
       </c>
       <c r="N28" t="n">
-        <v>1387.550765037032</v>
+        <v>1430.75526496627</v>
       </c>
       <c r="O28" t="n">
-        <v>1742.427076508072</v>
+        <v>1785.631576437311</v>
       </c>
       <c r="P28" t="n">
-        <v>2030.581289492359</v>
+        <v>2073.785789421597</v>
       </c>
       <c r="Q28" t="n">
-        <v>2163.738298195501</v>
+        <v>2163.738298195506</v>
       </c>
       <c r="R28" t="n">
-        <v>2130.582376766341</v>
+        <v>2130.582376766346</v>
       </c>
       <c r="S28" t="n">
-        <v>1995.57102840648</v>
+        <v>1995.571028406484</v>
       </c>
       <c r="T28" t="n">
-        <v>1830.478948789319</v>
+        <v>1830.478948789322</v>
       </c>
       <c r="U28" t="n">
-        <v>1598.050617728274</v>
+        <v>1598.050617728278</v>
       </c>
       <c r="V28" t="n">
-        <v>1400.0406653357</v>
+        <v>1400.040665335703</v>
       </c>
       <c r="W28" t="n">
-        <v>1167.298031112051</v>
+        <v>1167.298031112054</v>
       </c>
       <c r="X28" t="n">
-        <v>995.9830160273464</v>
+        <v>995.9830160273489</v>
       </c>
       <c r="Y28" t="n">
-        <v>831.8649726971286</v>
+        <v>831.8649726971308</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1975.12243896514</v>
+        <v>1975.122438965142</v>
       </c>
       <c r="C29" t="n">
-        <v>1662.834457838041</v>
+        <v>1662.834457838042</v>
       </c>
       <c r="D29" t="n">
-        <v>1361.243295044603</v>
+        <v>1361.243295044604</v>
       </c>
       <c r="E29" t="n">
-        <v>1032.129578259671</v>
+        <v>1032.129578259672</v>
       </c>
       <c r="F29" t="n">
-        <v>677.8182092833756</v>
+        <v>677.8182092833763</v>
       </c>
       <c r="G29" t="n">
-        <v>319.4202949416842</v>
+        <v>319.4202949416845</v>
       </c>
       <c r="H29" t="n">
-        <v>78.51123036376373</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="I29" t="n">
-        <v>92.89678243919442</v>
+        <v>92.89678243919428</v>
       </c>
       <c r="J29" t="n">
-        <v>337.3226259488472</v>
+        <v>345.9139878909583</v>
       </c>
       <c r="K29" t="n">
-        <v>735.2800741314265</v>
+        <v>735.280074131432</v>
       </c>
       <c r="L29" t="n">
-        <v>1241.860999930463</v>
+        <v>1241.860999930468</v>
       </c>
       <c r="M29" t="n">
-        <v>1830.939617153015</v>
+        <v>1830.93961715302</v>
       </c>
       <c r="N29" t="n">
-        <v>2433.265146762424</v>
+        <v>2433.265146762429</v>
       </c>
       <c r="O29" t="n">
-        <v>2991.784330192389</v>
+        <v>2991.784330192393</v>
       </c>
       <c r="P29" t="n">
-        <v>3442.105409100194</v>
+        <v>3442.105409100198</v>
       </c>
       <c r="Q29" t="n">
-        <v>3745.938483406504</v>
+        <v>3745.938483406508</v>
       </c>
       <c r="R29" t="n">
-        <v>3925.561518188186</v>
+        <v>3925.56151818819</v>
       </c>
       <c r="S29" t="n">
-        <v>3871.945385528594</v>
+        <v>3871.945385528597</v>
       </c>
       <c r="T29" t="n">
-        <v>3722.642173726128</v>
+        <v>3722.642173726131</v>
       </c>
       <c r="U29" t="n">
-        <v>3525.786232813277</v>
+        <v>3525.78623281328</v>
       </c>
       <c r="V29" t="n">
-        <v>3251.397881283018</v>
+        <v>3251.397881283021</v>
       </c>
       <c r="W29" t="n">
-        <v>2955.303761826216</v>
+        <v>2955.303761826219</v>
       </c>
       <c r="X29" t="n">
-        <v>2638.512539378449</v>
+        <v>2638.512539378451</v>
       </c>
       <c r="Y29" t="n">
-        <v>2305.04774321595</v>
+        <v>2305.047743215951</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>953.5429684126882</v>
+        <v>953.5429684126884</v>
       </c>
       <c r="C30" t="n">
-        <v>779.0899391315612</v>
+        <v>779.0899391315614</v>
       </c>
       <c r="D30" t="n">
-        <v>630.1555294703099</v>
+        <v>630.1555294703103</v>
       </c>
       <c r="E30" t="n">
-        <v>470.9180744648544</v>
+        <v>470.9180744648547</v>
       </c>
       <c r="F30" t="n">
-        <v>324.3835164917394</v>
+        <v>324.3835164917398</v>
       </c>
       <c r="G30" t="n">
-        <v>188.0204163243575</v>
+        <v>188.0204163243583</v>
       </c>
       <c r="H30" t="n">
         <v>97.5185219622258</v>
       </c>
       <c r="I30" t="n">
-        <v>78.51123036376373</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="J30" t="n">
-        <v>172.188499854381</v>
+        <v>172.1884998543815</v>
       </c>
       <c r="K30" t="n">
-        <v>410.4526988347281</v>
+        <v>410.4526988347286</v>
       </c>
       <c r="L30" t="n">
-        <v>777.1508591473934</v>
+        <v>777.1508591473939</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.427184369709</v>
+        <v>1224.42718436971</v>
       </c>
       <c r="N30" t="n">
         <v>1697.950227924164</v>
@@ -6558,22 +6558,22 @@
         <v>2108.911507342219</v>
       </c>
       <c r="P30" t="n">
-        <v>2419.411098818321</v>
+        <v>2419.411098818322</v>
       </c>
       <c r="Q30" t="n">
         <v>2577.052656464921</v>
       </c>
       <c r="R30" t="n">
-        <v>2576.908303057436</v>
+        <v>2576.908303057437</v>
       </c>
       <c r="S30" t="n">
-        <v>2447.470416550916</v>
+        <v>2447.470416550917</v>
       </c>
       <c r="T30" t="n">
         <v>2254.827416228772</v>
       </c>
       <c r="U30" t="n">
-        <v>2026.759569363187</v>
+        <v>2026.759569363188</v>
       </c>
       <c r="V30" t="n">
         <v>1791.607461131445</v>
@@ -6585,7 +6585,7 @@
         <v>1329.51860419771</v>
       </c>
       <c r="Y30" t="n">
-        <v>1121.758305432756</v>
+        <v>1121.758305432757</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>706.8910436802012</v>
+        <v>706.8910436802032</v>
       </c>
       <c r="C31" t="n">
-        <v>594.6293965656066</v>
+        <v>594.6293965656084</v>
       </c>
       <c r="D31" t="n">
-        <v>501.1872929665833</v>
+        <v>501.1872929665848</v>
       </c>
       <c r="E31" t="n">
-        <v>409.9487351975026</v>
+        <v>409.9487351975038</v>
       </c>
       <c r="F31" t="n">
-        <v>319.7333235129046</v>
+        <v>319.7333235129055</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7050227009359</v>
+        <v>208.7050227009365</v>
       </c>
       <c r="H31" t="n">
-        <v>119.162371732106</v>
+        <v>119.1623717321064</v>
       </c>
       <c r="I31" t="n">
-        <v>78.51123036376373</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="J31" t="n">
-        <v>179.1805753613267</v>
+        <v>145.8806964518304</v>
       </c>
       <c r="K31" t="n">
-        <v>438.7144708608304</v>
+        <v>299.738263270128</v>
       </c>
       <c r="L31" t="n">
-        <v>760.9914573063804</v>
+        <v>655.5814464243425</v>
       </c>
       <c r="M31" t="n">
-        <v>1160.695215456557</v>
+        <v>1055.285204574519</v>
       </c>
       <c r="N31" t="n">
-        <v>1387.550765037032</v>
+        <v>1452.240293831011</v>
       </c>
       <c r="O31" t="n">
-        <v>1742.427076508072</v>
+        <v>1807.116605302051</v>
       </c>
       <c r="P31" t="n">
-        <v>2030.581289492359</v>
+        <v>2095.270818286338</v>
       </c>
       <c r="Q31" t="n">
-        <v>2163.738298195501</v>
+        <v>2163.738298195506</v>
       </c>
       <c r="R31" t="n">
-        <v>2130.582376766341</v>
+        <v>2130.582376766346</v>
       </c>
       <c r="S31" t="n">
-        <v>1995.57102840648</v>
+        <v>1995.571028406484</v>
       </c>
       <c r="T31" t="n">
-        <v>1830.478948789319</v>
+        <v>1830.478948789322</v>
       </c>
       <c r="U31" t="n">
-        <v>1598.050617728274</v>
+        <v>1598.050617728278</v>
       </c>
       <c r="V31" t="n">
-        <v>1400.0406653357</v>
+        <v>1400.040665335703</v>
       </c>
       <c r="W31" t="n">
-        <v>1167.298031112051</v>
+        <v>1167.298031112054</v>
       </c>
       <c r="X31" t="n">
-        <v>995.9830160273464</v>
+        <v>995.9830160273489</v>
       </c>
       <c r="Y31" t="n">
-        <v>831.8649726971286</v>
+        <v>831.8649726971308</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1975.12243896514</v>
+        <v>1975.122438965141</v>
       </c>
       <c r="C32" t="n">
-        <v>1662.834457838041</v>
+        <v>1662.834457838042</v>
       </c>
       <c r="D32" t="n">
-        <v>1361.243295044602</v>
+        <v>1361.243295044603</v>
       </c>
       <c r="E32" t="n">
-        <v>1032.12957825967</v>
+        <v>1032.129578259671</v>
       </c>
       <c r="F32" t="n">
-        <v>677.8182092833749</v>
+        <v>677.8182092833754</v>
       </c>
       <c r="G32" t="n">
-        <v>319.4202949416842</v>
+        <v>319.4202949416846</v>
       </c>
       <c r="H32" t="n">
-        <v>78.51123036376373</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="I32" t="n">
-        <v>92.89678243919437</v>
+        <v>92.8967824391942</v>
       </c>
       <c r="J32" t="n">
-        <v>337.3226259488471</v>
+        <v>337.3226259488467</v>
       </c>
       <c r="K32" t="n">
-        <v>800.3393298056798</v>
+        <v>800.339329805686</v>
       </c>
       <c r="L32" t="n">
-        <v>1306.920255604716</v>
+        <v>1306.920255604722</v>
       </c>
       <c r="M32" t="n">
-        <v>1895.998872827267</v>
+        <v>1895.998872827273</v>
       </c>
       <c r="N32" t="n">
-        <v>2498.324402436677</v>
+        <v>2498.324402436682</v>
       </c>
       <c r="O32" t="n">
-        <v>3056.843585866641</v>
+        <v>3056.843585866646</v>
       </c>
       <c r="P32" t="n">
-        <v>3507.164664774446</v>
+        <v>3507.164664774451</v>
       </c>
       <c r="Q32" t="n">
-        <v>3810.997739080756</v>
+        <v>3810.99773908076</v>
       </c>
       <c r="R32" t="n">
-        <v>3925.561518188186</v>
+        <v>3925.56151818819</v>
       </c>
       <c r="S32" t="n">
-        <v>3871.945385528593</v>
+        <v>3871.945385528596</v>
       </c>
       <c r="T32" t="n">
-        <v>3722.642173726128</v>
+        <v>3722.64217372613</v>
       </c>
       <c r="U32" t="n">
-        <v>3525.786232813277</v>
+        <v>3525.786232813279</v>
       </c>
       <c r="V32" t="n">
-        <v>3251.397881283018</v>
+        <v>3251.397881283021</v>
       </c>
       <c r="W32" t="n">
-        <v>2955.303761826216</v>
+        <v>2955.303761826218</v>
       </c>
       <c r="X32" t="n">
-        <v>2638.512539378449</v>
+        <v>2638.512539378451</v>
       </c>
       <c r="Y32" t="n">
-        <v>2305.04774321595</v>
+        <v>2305.047743215951</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>953.5429684126882</v>
+        <v>953.542968412689</v>
       </c>
       <c r="C33" t="n">
-        <v>779.0899391315612</v>
+        <v>779.089939131562</v>
       </c>
       <c r="D33" t="n">
-        <v>630.1555294703099</v>
+        <v>630.1555294703107</v>
       </c>
       <c r="E33" t="n">
-        <v>470.9180744648544</v>
+        <v>470.9180744648553</v>
       </c>
       <c r="F33" t="n">
-        <v>324.3835164917394</v>
+        <v>324.3835164917402</v>
       </c>
       <c r="G33" t="n">
-        <v>188.0204163243575</v>
+        <v>188.0204163243583</v>
       </c>
       <c r="H33" t="n">
-        <v>97.51852196222505</v>
+        <v>97.51852196222586</v>
       </c>
       <c r="I33" t="n">
-        <v>78.51123036376373</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="J33" t="n">
-        <v>172.188499854381</v>
+        <v>172.1884998543811</v>
       </c>
       <c r="K33" t="n">
-        <v>410.4526988347281</v>
+        <v>410.4526988347282</v>
       </c>
       <c r="L33" t="n">
-        <v>777.1508591473934</v>
+        <v>777.1508591473935</v>
       </c>
       <c r="M33" t="n">
         <v>1224.427184369709</v>
@@ -6798,31 +6798,31 @@
         <v>2419.411098818321</v>
       </c>
       <c r="Q33" t="n">
-        <v>2577.052656464921</v>
+        <v>2577.052656464922</v>
       </c>
       <c r="R33" t="n">
-        <v>2576.908303057436</v>
+        <v>2576.908303057437</v>
       </c>
       <c r="S33" t="n">
-        <v>2447.470416550916</v>
+        <v>2447.470416550917</v>
       </c>
       <c r="T33" t="n">
-        <v>2254.827416228772</v>
+        <v>2254.827416228773</v>
       </c>
       <c r="U33" t="n">
-        <v>2026.759569363187</v>
+        <v>2026.759569363188</v>
       </c>
       <c r="V33" t="n">
         <v>1791.607461131445</v>
       </c>
       <c r="W33" t="n">
-        <v>1537.370104403243</v>
+        <v>1537.370104403244</v>
       </c>
       <c r="X33" t="n">
-        <v>1329.51860419771</v>
+        <v>1329.518604197711</v>
       </c>
       <c r="Y33" t="n">
-        <v>1121.758305432756</v>
+        <v>1121.758305432757</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>706.8910436802017</v>
+        <v>706.8910436802037</v>
       </c>
       <c r="C34" t="n">
-        <v>594.6293965656071</v>
+        <v>594.6293965656088</v>
       </c>
       <c r="D34" t="n">
-        <v>501.1872929665836</v>
+        <v>501.1872929665851</v>
       </c>
       <c r="E34" t="n">
-        <v>409.9487351975028</v>
+        <v>409.948735197504</v>
       </c>
       <c r="F34" t="n">
-        <v>319.7333235129047</v>
+        <v>319.7333235129057</v>
       </c>
       <c r="G34" t="n">
-        <v>208.705022700936</v>
+        <v>208.7050227009366</v>
       </c>
       <c r="H34" t="n">
-        <v>119.1623717321061</v>
+        <v>119.1623717321064</v>
       </c>
       <c r="I34" t="n">
-        <v>78.51123036376373</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="J34" t="n">
-        <v>145.8806964518305</v>
+        <v>179.1805753613264</v>
       </c>
       <c r="K34" t="n">
-        <v>405.4145919513342</v>
+        <v>438.7144708608299</v>
       </c>
       <c r="L34" t="n">
-        <v>616.6711484243187</v>
+        <v>810.8209818599531</v>
       </c>
       <c r="M34" t="n">
-        <v>1016.374906574495</v>
+        <v>1210.524740010129</v>
       </c>
       <c r="N34" t="n">
-        <v>1387.550765037033</v>
+        <v>1607.479829266621</v>
       </c>
       <c r="O34" t="n">
-        <v>1742.427076508073</v>
+        <v>1807.116605302052</v>
       </c>
       <c r="P34" t="n">
-        <v>2030.58128949236</v>
+        <v>2095.270818286339</v>
       </c>
       <c r="Q34" t="n">
-        <v>2163.738298195502</v>
+        <v>2163.738298195507</v>
       </c>
       <c r="R34" t="n">
-        <v>2130.582376766342</v>
+        <v>2130.582376766346</v>
       </c>
       <c r="S34" t="n">
-        <v>1995.571028406481</v>
+        <v>1995.571028406485</v>
       </c>
       <c r="T34" t="n">
-        <v>1830.478948789319</v>
+        <v>1830.478948789323</v>
       </c>
       <c r="U34" t="n">
-        <v>1598.050617728275</v>
+        <v>1598.050617728278</v>
       </c>
       <c r="V34" t="n">
-        <v>1400.0406653357</v>
+        <v>1400.040665335703</v>
       </c>
       <c r="W34" t="n">
-        <v>1167.298031112052</v>
+        <v>1167.298031112055</v>
       </c>
       <c r="X34" t="n">
-        <v>995.9830160273469</v>
+        <v>995.9830160273495</v>
       </c>
       <c r="Y34" t="n">
-        <v>831.8649726971291</v>
+        <v>831.8649726971314</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218372</v>
+        <v>66.51211643218326</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,16 +6947,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
@@ -6980,7 +6980,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7047,16 +7047,16 @@
         <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
         <v>1109.759191501177</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170922</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630287</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J37" t="n">
         <v>176.361719815531</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090252</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L37" t="n">
-        <v>527.0902910313824</v>
+        <v>623.7981640572066</v>
       </c>
       <c r="M37" t="n">
-        <v>791.2306453564041</v>
+        <v>887.9385183822283</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.247355412076</v>
+        <v>1155.9552284379</v>
       </c>
       <c r="O37" t="n">
-        <v>1197.165704630265</v>
+        <v>1293.873577656089</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.346898434619</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734885</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218326</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,16 +7184,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
@@ -7211,7 +7211,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7245,10 +7245,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7269,16 +7269,16 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170922</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630287</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J40" t="n">
-        <v>163.8840378413021</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K40" t="n">
-        <v>358.9027651347964</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L40" t="n">
-        <v>611.3204820829775</v>
+        <v>623.7981640572066</v>
       </c>
       <c r="M40" t="n">
-        <v>875.4608364079992</v>
+        <v>875.4608364079986</v>
       </c>
       <c r="N40" t="n">
-        <v>1046.769673437847</v>
+        <v>1143.47754646367</v>
       </c>
       <c r="O40" t="n">
-        <v>1281.39589568186</v>
+        <v>1378.103768707684</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.346898434619</v>
+        <v>1477.054771460442</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734885</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7391,52 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307324</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668174</v>
@@ -7454,7 +7454,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
         <v>312.3844025601599</v>
@@ -7485,7 +7485,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7500,40 +7500,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170921</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919198</v>
@@ -7561,58 +7561,58 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226762</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>176.361719815531</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090252</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L43" t="n">
-        <v>623.7981640572063</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M43" t="n">
-        <v>791.2306453564041</v>
+        <v>886.6195415621439</v>
       </c>
       <c r="N43" t="n">
-        <v>1038.104631555369</v>
+        <v>1154.636251617815</v>
       </c>
       <c r="O43" t="n">
-        <v>1272.730853799383</v>
+        <v>1292.554600836005</v>
       </c>
       <c r="P43" t="n">
-        <v>1468.389729577966</v>
+        <v>1477.054771460442</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307332</v>
@@ -7640,16 +7640,16 @@
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,25 +7658,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7770,7 +7770,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170917</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962282</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K46" t="n">
-        <v>273.3535972631172</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L46" t="n">
-        <v>514.6126090571524</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M46" t="n">
-        <v>778.7529633821741</v>
+        <v>693.2037955104961</v>
       </c>
       <c r="N46" t="n">
-        <v>1046.769673437846</v>
+        <v>961.2205055661675</v>
       </c>
       <c r="O46" t="n">
-        <v>1184.688022656035</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.346898434618</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363022</v>
@@ -7840,16 +7840,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304656</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673484</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431745</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734879</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>74.39456324884611</v>
+        <v>8.678143375870832</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>128.1768078250279</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10051,7 +10051,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>21.70204935832423</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>8.678143375870121</v>
       </c>
       <c r="K29" t="n">
-        <v>8.678143375864181</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10267,19 +10267,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>112.1418484571367</v>
+        <v>146.0470976578082</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10288,7 +10288,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>74.39456324884742</v>
+        <v>74.39456324885441</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>145.7780897798613</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>6.234054814762288</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905548</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
-        <v>64.96676871987741</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>313.1061118477572</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>248.16756122275</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687857</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.11779872993456</v>
+        <v>36.11779872993453</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>166.4420886499517</v>
       </c>
       <c r="U11" t="n">
-        <v>209.4931899558587</v>
+        <v>209.4931899558584</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444872</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055433</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500055</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>106.9143773724578</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>67.41317437960811</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.37879994334732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>116.8622334454104</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161114</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.007723579169</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905548</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>75.00735860142566</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805277</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.3410403666941</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>257.8689100370266</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.178085141395</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.51948462477739</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>128.6975697661673</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-2.013722522065109e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>957380.1241218521</v>
+        <v>957380.1241218519</v>
       </c>
     </row>
     <row r="6">
@@ -26314,7 +26314,7 @@
         <v>245782.9016151115</v>
       </c>
       <c r="C2" t="n">
-        <v>245782.9016151116</v>
+        <v>245782.9016151115</v>
       </c>
       <c r="D2" t="n">
         <v>245802.9259635273</v>
@@ -26323,13 +26323,13 @@
         <v>195176.1543986005</v>
       </c>
       <c r="F2" t="n">
-        <v>226627.9519519931</v>
+        <v>226627.9519519933</v>
       </c>
       <c r="G2" t="n">
-        <v>246312.5309592853</v>
+        <v>246312.5309592852</v>
       </c>
       <c r="H2" t="n">
-        <v>246312.5309592853</v>
+        <v>246312.5309592852</v>
       </c>
       <c r="I2" t="n">
         <v>246312.5309592852</v>
@@ -26338,22 +26338,22 @@
         <v>246312.530959285</v>
       </c>
       <c r="K2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592853</v>
       </c>
       <c r="N2" t="n">
+        <v>246312.5309592853</v>
+      </c>
+      <c r="O2" t="n">
+        <v>246312.5309592854</v>
+      </c>
+      <c r="P2" t="n">
         <v>246312.5309592852</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592853</v>
-      </c>
-      <c r="P2" t="n">
-        <v>246312.5309592854</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>178636.7950430979</v>
+        <v>178636.7950430978</v>
       </c>
       <c r="E3" t="n">
-        <v>716956.9442962973</v>
+        <v>716956.9442962961</v>
       </c>
       <c r="F3" t="n">
-        <v>266031.7208775255</v>
+        <v>266031.7208775266</v>
       </c>
       <c r="G3" t="n">
-        <v>44886.23236414349</v>
+        <v>44886.23236414335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39243.70206893</v>
+        <v>39243.7020689303</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44886.23236414332</v>
+        <v>44886.23236414313</v>
       </c>
       <c r="M3" t="n">
-        <v>131904.8093616054</v>
+        <v>131904.809361605</v>
       </c>
       <c r="N3" t="n">
-        <v>69946.04093348062</v>
+        <v>69946.04093348092</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>394913.3853753741</v>
+        <v>394913.3853753742</v>
       </c>
       <c r="E4" t="n">
-        <v>76483.98047465962</v>
+        <v>76483.98047465997</v>
       </c>
       <c r="F4" t="n">
-        <v>56665.3434111104</v>
+        <v>56665.34341111068</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657705</v>
       </c>
       <c r="I4" t="n">
+        <v>93774.13782657708</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94694.05463332696</v>
+      </c>
+      <c r="K4" t="n">
+        <v>94694.05463332689</v>
+      </c>
+      <c r="L4" t="n">
+        <v>94694.05463332693</v>
+      </c>
+      <c r="M4" t="n">
         <v>93774.13782657706</v>
       </c>
-      <c r="J4" t="n">
-        <v>94694.05463332692</v>
-      </c>
-      <c r="K4" t="n">
-        <v>94694.05463332692</v>
-      </c>
-      <c r="L4" t="n">
-        <v>94694.05463332692</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93774.13782657703</v>
-      </c>
       <c r="N4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657708</v>
+        <v>93774.13782657706</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>38174.79578607955</v>
       </c>
       <c r="E5" t="n">
-        <v>55358.17228974955</v>
+        <v>55358.17228974945</v>
       </c>
       <c r="F5" t="n">
         <v>77801.67147047339</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624988</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="J5" t="n">
-        <v>88142.59298517078</v>
+        <v>88142.59298517082</v>
       </c>
       <c r="K5" t="n">
-        <v>88142.59298517079</v>
+        <v>88142.59298517082</v>
       </c>
       <c r="L5" t="n">
-        <v>88142.59298517078</v>
+        <v>88142.59298517081</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-255460.6583166197</v>
+        <v>-255465.0718944878</v>
       </c>
       <c r="C6" t="n">
-        <v>-255460.6583166197</v>
+        <v>-255465.0718944879</v>
       </c>
       <c r="D6" t="n">
-        <v>-365922.0502410243</v>
+        <v>-365926.2969493222</v>
       </c>
       <c r="E6" t="n">
-        <v>-653622.9426621059</v>
+        <v>-654049.0791334441</v>
       </c>
       <c r="F6" t="n">
-        <v>-173870.7838071162</v>
+        <v>-174034.8219655115</v>
       </c>
       <c r="G6" t="n">
-        <v>25133.56346231488</v>
+        <v>25133.56346231501</v>
       </c>
       <c r="H6" t="n">
-        <v>70019.79582645856</v>
+        <v>70019.79582645826</v>
       </c>
       <c r="I6" t="n">
-        <v>70019.79582645849</v>
+        <v>70019.79582645831</v>
       </c>
       <c r="J6" t="n">
-        <v>24232.18127185729</v>
+        <v>24232.18127185694</v>
       </c>
       <c r="K6" t="n">
-        <v>63475.88334078727</v>
+        <v>63475.88334078736</v>
       </c>
       <c r="L6" t="n">
-        <v>18589.65097664396</v>
+        <v>18589.65097664423</v>
       </c>
       <c r="M6" t="n">
-        <v>-61885.01353514698</v>
+        <v>-61885.0135351466</v>
       </c>
       <c r="N6" t="n">
-        <v>73.75489297775493</v>
+        <v>73.75489297744934</v>
       </c>
       <c r="O6" t="n">
-        <v>70019.79582645828</v>
+        <v>70019.79582645847</v>
       </c>
       <c r="P6" t="n">
-        <v>70019.79582645861</v>
+        <v>70019.79582645833</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H2" t="n">
+        <v>97.68472022810499</v>
+      </c>
+      <c r="I2" t="n">
+        <v>97.68472022810499</v>
+      </c>
+      <c r="J2" t="n">
+        <v>56.10779045517896</v>
+      </c>
+      <c r="K2" t="n">
+        <v>56.10779045517896</v>
+      </c>
+      <c r="L2" t="n">
+        <v>56.10779045517891</v>
+      </c>
+      <c r="M2" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="J2" t="n">
-        <v>56.10779045517923</v>
-      </c>
-      <c r="K2" t="n">
-        <v>56.10779045517923</v>
-      </c>
-      <c r="L2" t="n">
-        <v>56.10779045517917</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.68472022810498</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.68472022810498</v>
-      </c>
       <c r="O2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>208.5869626641997</v>
+        <v>208.5869626641996</v>
       </c>
       <c r="E3" t="n">
-        <v>856.7359786149264</v>
+        <v>856.7359786149251</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.8223198497377</v>
+        <v>545.8223198497362</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>981.3903795470463</v>
+        <v>981.3903795470475</v>
       </c>
       <c r="K4" t="n">
-        <v>981.3903795470466</v>
+        <v>981.3903795470475</v>
       </c>
       <c r="L4" t="n">
-        <v>981.3903795470466</v>
+        <v>981.3903795470475</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.10779045517921</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.10779045517916</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="M2" t="n">
-        <v>41.57692977292581</v>
+        <v>41.57692977292611</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>208.5869626641997</v>
+        <v>208.5869626641996</v>
       </c>
       <c r="E3" t="n">
-        <v>648.1490159507267</v>
+        <v>648.1490159507255</v>
       </c>
       <c r="F3" t="n">
-        <v>233.0407219783719</v>
+        <v>233.0407219783727</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.8223198497377</v>
+        <v>545.8223198497362</v>
       </c>
       <c r="F4" t="n">
-        <v>285.5791355525549</v>
+        <v>285.5791355525562</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>149.9889241447539</v>
+        <v>149.9889241447551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.8333957049837</v>
+        <v>395.8333957049812</v>
       </c>
       <c r="N4" t="n">
-        <v>285.5791355525549</v>
+        <v>285.5791355525562</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.10779045517921</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.8223198497377</v>
+        <v>545.8223198497362</v>
       </c>
       <c r="N4" t="n">
-        <v>285.5791355525549</v>
+        <v>285.5791355525562</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27877,25 +27877,25 @@
         <v>109.875823230523</v>
       </c>
       <c r="K8" t="n">
-        <v>113.4243481223828</v>
+        <v>113.4243481223829</v>
       </c>
       <c r="L8" t="n">
         <v>103.4384265855423</v>
       </c>
       <c r="M8" t="n">
-        <v>83.10584927587516</v>
+        <v>83.10584927587522</v>
       </c>
       <c r="N8" t="n">
-        <v>79.79017629777761</v>
+        <v>79.79017629777769</v>
       </c>
       <c r="O8" t="n">
-        <v>88.81356175098253</v>
+        <v>88.81356175098259</v>
       </c>
       <c r="P8" t="n">
-        <v>110.6498159972183</v>
+        <v>110.6498159972184</v>
       </c>
       <c r="Q8" t="n">
-        <v>131.7527436858923</v>
+        <v>131.7527436858924</v>
       </c>
       <c r="R8" t="n">
         <v>162.9115647751169</v>
@@ -27953,31 +27953,31 @@
         <v>84.07513795364181</v>
       </c>
       <c r="J9" t="n">
-        <v>84.44921381053909</v>
+        <v>84.44921381053911</v>
       </c>
       <c r="K9" t="n">
-        <v>65.39288987617182</v>
+        <v>65.39288987617186</v>
       </c>
       <c r="L9" t="n">
-        <v>41.13836481108923</v>
+        <v>41.13836481108926</v>
       </c>
       <c r="M9" t="n">
-        <v>28.45413927002951</v>
+        <v>28.45413927002957</v>
       </c>
       <c r="N9" t="n">
-        <v>14.65304888499013</v>
+        <v>14.65304888499018</v>
       </c>
       <c r="O9" t="n">
-        <v>35.8489145987384</v>
+        <v>35.84891459873846</v>
       </c>
       <c r="P9" t="n">
-        <v>48.30026420231208</v>
+        <v>48.30026420231211</v>
       </c>
       <c r="Q9" t="n">
-        <v>82.71087822395673</v>
+        <v>82.71087822395675</v>
       </c>
       <c r="R9" t="n">
-        <v>117.8233054406204</v>
+        <v>117.8233054406205</v>
       </c>
       <c r="S9" t="n">
         <v>163.3495316049427</v>
@@ -28038,19 +28038,19 @@
         <v>85.31257976318341</v>
       </c>
       <c r="L10" t="n">
-        <v>78.96285353680679</v>
+        <v>78.96285353680682</v>
       </c>
       <c r="M10" t="n">
-        <v>79.96406268172319</v>
+        <v>79.96406268172322</v>
       </c>
       <c r="N10" t="n">
-        <v>70.12580114512704</v>
+        <v>70.12580114512707</v>
       </c>
       <c r="O10" t="n">
-        <v>85.29079918130218</v>
+        <v>85.29079918130219</v>
       </c>
       <c r="P10" t="n">
-        <v>92.23552943792612</v>
+        <v>92.23552943792615</v>
       </c>
       <c r="Q10" t="n">
         <v>120.0083702671517</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="C12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="D12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="E12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="F12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="G12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="H12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="I12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="J12" t="n">
-        <v>5.473274748887398</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>36.73811349329526</v>
       </c>
       <c r="L12" t="n">
-        <v>41.57692977292579</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="N12" t="n">
-        <v>41.57692977292579</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="P12" t="n">
-        <v>41.57692977292579</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.26483874440827</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="S12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="T12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="U12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="V12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="W12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="X12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292579</v>
+        <v>41.57692977292603</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810501</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L19" t="n">
-        <v>76.32843350415902</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>86.4133008804842</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810501</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>77.66073332242505</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.41330088048412</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810502</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29080,31 +29080,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>85.08100106221713</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P25" t="n">
-        <v>76.32843350415916</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810502</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="C26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="D26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="E26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="F26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="G26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="H26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="J26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="K26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="L26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="M26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="N26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="O26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="P26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="R26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="S26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="T26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="U26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="V26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="W26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="X26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
     </row>
     <row r="27">
@@ -29414,13 +29414,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="C28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="D28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="E28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="F28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="G28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="H28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="I28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="J28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="K28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="L28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="M28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="N28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="O28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="P28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="R28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="S28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="T28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="U28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="V28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="W28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="X28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="C29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="D29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="E29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="F29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="G29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="H29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="J29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="K29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="L29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="M29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="N29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="O29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="P29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="R29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="S29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="T29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="U29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="V29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="W29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="X29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="Y29" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="C31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="D31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="E31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="F31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="G31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="H31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="I31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="J31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="K31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="L31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="M31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="N31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="O31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="P31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="R31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="S31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="T31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="U31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="V31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="W31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="X31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.10779045517923</v>
+        <v>56.10779045517896</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="C32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="D32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="E32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="F32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="G32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="H32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="J32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="K32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="L32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="M32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="N32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="O32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="P32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="R32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="S32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="T32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="U32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="V32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="W32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="X32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="Y32" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="C34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="D34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="E34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="F34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="G34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="H34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="I34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="J34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="K34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="L34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="M34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="N34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="O34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="P34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="R34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="S34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="T34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="U34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="V34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="W34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="X34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.10779045517917</v>
+        <v>56.10779045517891</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>85.08100106221718</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810498</v>
+        <v>76.32843350415907</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J40" t="n">
-        <v>86.41330088048414</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810498</v>
+        <v>85.08100106221644</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810499</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N43" t="n">
-        <v>76.32843350415945</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810499</v>
+        <v>86.41330088048352</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810499</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>86.41330088048286</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810506</v>
+        <v>77.66073332242584</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8385405534239176</v>
+        <v>0.8385405534239172</v>
       </c>
       <c r="H8" t="n">
-        <v>8.587703442752698</v>
+        <v>8.587703442752694</v>
       </c>
       <c r="I8" t="n">
-        <v>32.32783468587562</v>
+        <v>32.3278346858756</v>
       </c>
       <c r="J8" t="n">
-        <v>71.17008129616329</v>
+        <v>71.17008129616326</v>
       </c>
       <c r="K8" t="n">
         <v>106.6655029225977</v>
       </c>
       <c r="L8" t="n">
-        <v>132.327988384445</v>
+        <v>132.3279883844449</v>
       </c>
       <c r="M8" t="n">
-        <v>147.2403839513976</v>
+        <v>147.2403839513975</v>
       </c>
       <c r="N8" t="n">
-        <v>149.6228872988133</v>
+        <v>149.6228872988132</v>
       </c>
       <c r="O8" t="n">
-        <v>141.2846496707042</v>
+        <v>141.2846496707041</v>
       </c>
       <c r="P8" t="n">
         <v>120.5831797580512</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.55294618855714</v>
+        <v>90.5529461885571</v>
       </c>
       <c r="R8" t="n">
-        <v>52.67397303901521</v>
+        <v>52.67397303901519</v>
       </c>
       <c r="S8" t="n">
-        <v>19.10824286114754</v>
+        <v>19.10824286114753</v>
       </c>
       <c r="T8" t="n">
-        <v>3.670711272613201</v>
+        <v>3.6707112726132</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06708324427391339</v>
+        <v>0.06708324427391336</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4486587498814861</v>
+        <v>0.4486587498814859</v>
       </c>
       <c r="H9" t="n">
-        <v>4.333098979118564</v>
+        <v>4.333098979118562</v>
       </c>
       <c r="I9" t="n">
         <v>15.44724204635818</v>
       </c>
       <c r="J9" t="n">
-        <v>42.3884128561276</v>
+        <v>42.38841285612758</v>
       </c>
       <c r="K9" t="n">
-        <v>72.44854909818717</v>
+        <v>72.44854909818713</v>
       </c>
       <c r="L9" t="n">
-        <v>97.41601496878495</v>
+        <v>97.41601496878492</v>
       </c>
       <c r="M9" t="n">
-        <v>113.6798946519888</v>
+        <v>113.6798946519887</v>
       </c>
       <c r="N9" t="n">
-        <v>116.6886631983432</v>
+        <v>116.6886631983431</v>
       </c>
       <c r="O9" t="n">
         <v>106.747329845706</v>
       </c>
       <c r="P9" t="n">
-        <v>85.67414321201817</v>
+        <v>85.67414321201814</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.27089586206479</v>
+        <v>57.27089586206476</v>
       </c>
       <c r="R9" t="n">
-        <v>27.8561985233435</v>
+        <v>27.85619852334349</v>
       </c>
       <c r="S9" t="n">
-        <v>8.333639498895142</v>
+        <v>8.333639498895138</v>
       </c>
       <c r="T9" t="n">
-        <v>1.808409610267919</v>
+        <v>1.808409610267918</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02951702301851883</v>
+        <v>0.02951702301851882</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3761404244764256</v>
+        <v>0.3761404244764254</v>
       </c>
       <c r="H10" t="n">
-        <v>3.344230319435859</v>
+        <v>3.344230319435857</v>
       </c>
       <c r="I10" t="n">
         <v>11.31156840152742</v>
       </c>
       <c r="J10" t="n">
-        <v>26.59312801048329</v>
+        <v>26.59312801048328</v>
       </c>
       <c r="K10" t="n">
-        <v>43.70067840735198</v>
+        <v>43.70067840735197</v>
       </c>
       <c r="L10" t="n">
-        <v>55.9218227444315</v>
+        <v>55.92182274443147</v>
       </c>
       <c r="M10" t="n">
-        <v>58.96172126588187</v>
+        <v>58.96172126588184</v>
       </c>
       <c r="N10" t="n">
-        <v>57.55974332010614</v>
+        <v>57.55974332010612</v>
       </c>
       <c r="O10" t="n">
-        <v>53.16573927054061</v>
+        <v>53.16573927054059</v>
       </c>
       <c r="P10" t="n">
-        <v>45.49247461122149</v>
+        <v>45.49247461122147</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.49663136229415</v>
+        <v>31.49663136229413</v>
       </c>
       <c r="R10" t="n">
         <v>16.91264126782182</v>
       </c>
       <c r="S10" t="n">
-        <v>6.555101761102796</v>
+        <v>6.555101761102794</v>
       </c>
       <c r="T10" t="n">
-        <v>1.607145450035636</v>
+        <v>1.607145450035635</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02051675042598687</v>
+        <v>0.02051675042598686</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.444164738150455</v>
+        <v>3.44416473815045</v>
       </c>
       <c r="H11" t="n">
-        <v>35.27255212458336</v>
+        <v>35.27255212458331</v>
       </c>
       <c r="I11" t="n">
-        <v>132.7811610675456</v>
+        <v>132.7811610675454</v>
       </c>
       <c r="J11" t="n">
-        <v>292.3191769445975</v>
+        <v>292.319176944597</v>
       </c>
       <c r="K11" t="n">
-        <v>438.1106703105063</v>
+        <v>438.1106703105057</v>
       </c>
       <c r="L11" t="n">
-        <v>543.5150269156784</v>
+        <v>543.5150269156776</v>
       </c>
       <c r="M11" t="n">
-        <v>604.7651915777616</v>
+        <v>604.7651915777607</v>
       </c>
       <c r="N11" t="n">
-        <v>614.5509246400316</v>
+        <v>614.5509246400306</v>
       </c>
       <c r="O11" t="n">
-        <v>580.303011525048</v>
+        <v>580.3030115250471</v>
       </c>
       <c r="P11" t="n">
-        <v>495.2751945519585</v>
+        <v>495.2751945519578</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.9310448669452</v>
+        <v>371.9310448669447</v>
       </c>
       <c r="R11" t="n">
-        <v>216.3495132328437</v>
+        <v>216.3495132328434</v>
       </c>
       <c r="S11" t="n">
-        <v>78.48390397060358</v>
+        <v>78.48390397060346</v>
       </c>
       <c r="T11" t="n">
-        <v>15.07683114125362</v>
+        <v>15.0768311412536</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2755331790520363</v>
+        <v>0.2755331790520359</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.842790595511351</v>
+        <v>1.842790595511348</v>
       </c>
       <c r="H12" t="n">
-        <v>17.79747759349121</v>
+        <v>17.79747759349118</v>
       </c>
       <c r="I12" t="n">
-        <v>63.44695690686012</v>
+        <v>63.44695690686003</v>
       </c>
       <c r="J12" t="n">
-        <v>174.1032992013597</v>
+        <v>174.1032992013595</v>
       </c>
       <c r="K12" t="n">
-        <v>297.5702691006202</v>
+        <v>297.5702691006198</v>
       </c>
       <c r="L12" t="n">
-        <v>400.1199492578484</v>
+        <v>400.1199492578478</v>
       </c>
       <c r="M12" t="n">
-        <v>466.9211083451348</v>
+        <v>466.9211083451341</v>
       </c>
       <c r="N12" t="n">
-        <v>479.2791207159106</v>
+        <v>479.2791207159099</v>
       </c>
       <c r="O12" t="n">
-        <v>438.4467606785274</v>
+        <v>438.4467606785268</v>
       </c>
       <c r="P12" t="n">
-        <v>351.8921795937421</v>
+        <v>351.8921795937416</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.2306030340455</v>
+        <v>235.2306030340451</v>
       </c>
       <c r="R12" t="n">
-        <v>114.4146652195557</v>
+        <v>114.4146652195555</v>
       </c>
       <c r="S12" t="n">
-        <v>34.22902707013407</v>
+        <v>34.22902707013402</v>
       </c>
       <c r="T12" t="n">
-        <v>7.427739286293557</v>
+        <v>7.427739286293546</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1212362233889047</v>
+        <v>0.1212362233889046</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.544933731928555</v>
+        <v>1.544933731928553</v>
       </c>
       <c r="H13" t="n">
-        <v>13.73586536205571</v>
+        <v>13.73586536205569</v>
       </c>
       <c r="I13" t="n">
-        <v>46.46037077472421</v>
+        <v>46.46037077472415</v>
       </c>
       <c r="J13" t="n">
-        <v>109.2268148473489</v>
+        <v>109.2268148473487</v>
       </c>
       <c r="K13" t="n">
-        <v>179.4932099458812</v>
+        <v>179.493209945881</v>
       </c>
       <c r="L13" t="n">
-        <v>229.6895113814509</v>
+        <v>229.6895113814506</v>
       </c>
       <c r="M13" t="n">
-        <v>242.1753849058553</v>
+        <v>242.1753849058549</v>
       </c>
       <c r="N13" t="n">
-        <v>236.4169955413945</v>
+        <v>236.4169955413941</v>
       </c>
       <c r="O13" t="n">
-        <v>218.3693605820472</v>
+        <v>218.3693605820469</v>
       </c>
       <c r="P13" t="n">
-        <v>186.8527124507045</v>
+        <v>186.8527124507042</v>
       </c>
       <c r="Q13" t="n">
-        <v>129.3671327708539</v>
+        <v>129.3671327708537</v>
       </c>
       <c r="R13" t="n">
-        <v>69.46583852835121</v>
+        <v>69.46583852835111</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92398149188218</v>
+        <v>26.92398149188214</v>
       </c>
       <c r="T13" t="n">
-        <v>6.601080490967463</v>
+        <v>6.601080490967453</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08426911265064858</v>
+        <v>0.08426911265064846</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33989,7 +33989,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987486</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34381,7 +34381,7 @@
         <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P44" t="n">
         <v>629.9949819746412</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>111.2732724179112</v>
+        <v>111.2732724179107</v>
       </c>
       <c r="K11" t="n">
-        <v>218.0208192655257</v>
+        <v>218.0208192655251</v>
       </c>
       <c r="L11" t="n">
-        <v>307.7486119456912</v>
+        <v>307.7486119456904</v>
       </c>
       <c r="M11" t="n">
-        <v>374.4189583504889</v>
+        <v>374.418958350488</v>
       </c>
       <c r="N11" t="n">
-        <v>385.1378610434406</v>
+        <v>385.1378610434397</v>
       </c>
       <c r="O11" t="n">
-        <v>350.2048001033612</v>
+        <v>350.2048001033603</v>
       </c>
       <c r="P11" t="n">
-        <v>264.042198796689</v>
+        <v>264.0421987966882</v>
       </c>
       <c r="Q11" t="n">
-        <v>149.6253549924957</v>
+        <v>149.6253549924952</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7639754187115955</v>
+        <v>0.7639754187112828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.501506679785919</v>
+        <v>5.501506679786061</v>
       </c>
       <c r="J12" t="n">
-        <v>52.73894728358044</v>
+        <v>88.84260230761882</v>
       </c>
       <c r="K12" t="n">
-        <v>159.7288301262612</v>
+        <v>196.4669436195561</v>
       </c>
       <c r="L12" t="n">
-        <v>303.1424992509</v>
+        <v>261.5655694779737</v>
       </c>
       <c r="M12" t="n">
-        <v>324.7870744231165</v>
+        <v>366.3640041960418</v>
       </c>
       <c r="N12" t="n">
-        <v>389.5143384055031</v>
+        <v>347.9374086325765</v>
       </c>
       <c r="O12" t="n">
-        <v>337.4274460070088</v>
+        <v>337.4274460070084</v>
       </c>
       <c r="P12" t="n">
-        <v>259.4947019523377</v>
+        <v>217.9177721794114</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.24882894802394</v>
+        <v>95.2488289480236</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.3120910285176</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.4445645036019</v>
+        <v>57.44456450360196</v>
       </c>
       <c r="K13" t="n">
         <v>198.8006478929242</v>
       </c>
       <c r="L13" t="n">
-        <v>298.8564664146929</v>
+        <v>298.8564664146928</v>
       </c>
       <c r="M13" t="n">
-        <v>323.3361916406216</v>
+        <v>323.3361916406215</v>
       </c>
       <c r="N13" t="n">
-        <v>322.1260976935488</v>
+        <v>322.1260976935487</v>
       </c>
       <c r="O13" t="n">
         <v>284.5314182690126</v>
       </c>
       <c r="P13" t="n">
-        <v>225.7082014885238</v>
+        <v>225.7082014885237</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.78201929208529</v>
+        <v>84.78201929208532</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599202</v>
+        <v>87.1553463859922</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172454</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L16" t="n">
-        <v>361.3343019431239</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664096</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N16" t="n">
-        <v>386.4338759404659</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O16" t="n">
-        <v>343.9300599955656</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180362</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.9711683108195</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,34 +36036,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K19" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L19" t="n">
-        <v>233.6111041328027</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M19" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>186.3638087115535</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.7360003882472</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057677</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,28 +36279,28 @@
         <v>109.6268955184479</v>
       </c>
       <c r="K22" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M22" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>250.6999626455033</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591744</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>99.46458104062629</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057692</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266911</v>
+        <v>1.332299818266883</v>
       </c>
       <c r="J25" t="n">
         <v>109.6268955184479</v>
@@ -36519,25 +36519,25 @@
         <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286436</v>
+        <v>242.3636716908608</v>
       </c>
       <c r="M25" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O25" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>176.2789413352284</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882472</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057677</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14.53086068225323</v>
+        <v>14.53086068225298</v>
       </c>
       <c r="J26" t="n">
-        <v>246.8947914238917</v>
+        <v>246.8947914238915</v>
       </c>
       <c r="K26" t="n">
-        <v>393.2990770105796</v>
+        <v>393.2990770105794</v>
       </c>
       <c r="L26" t="n">
-        <v>511.6979048475112</v>
+        <v>511.6979048475109</v>
       </c>
       <c r="M26" t="n">
-        <v>595.0289062854058</v>
+        <v>595.0289062854055</v>
       </c>
       <c r="N26" t="n">
-        <v>608.4096258680905</v>
+        <v>608.4096258680903</v>
       </c>
       <c r="O26" t="n">
-        <v>638.5553545922444</v>
+        <v>572.8389347192688</v>
       </c>
       <c r="P26" t="n">
-        <v>454.8697766745508</v>
+        <v>454.8697766745506</v>
       </c>
       <c r="Q26" t="n">
-        <v>306.9020952588987</v>
+        <v>306.9020952588984</v>
       </c>
       <c r="R26" t="n">
-        <v>115.7209889974039</v>
+        <v>181.4374088703861</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.6862070682454</v>
+        <v>101.6862070682452</v>
       </c>
       <c r="K28" t="n">
-        <v>262.1554499994987</v>
+        <v>262.1554499994985</v>
       </c>
       <c r="L28" t="n">
-        <v>375.8651626253773</v>
+        <v>375.865162625377</v>
       </c>
       <c r="M28" t="n">
-        <v>225.2315089392173</v>
+        <v>225.2315089392171</v>
       </c>
       <c r="N28" t="n">
-        <v>357.3238276032854</v>
+        <v>400.964736622719</v>
       </c>
       <c r="O28" t="n">
-        <v>358.4609206778189</v>
+        <v>358.4609206778186</v>
       </c>
       <c r="P28" t="n">
-        <v>291.0648616002896</v>
+        <v>291.0648616002894</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.5020289930729</v>
+        <v>90.86111997364536</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>14.53086068225323</v>
+        <v>14.53086068225301</v>
       </c>
       <c r="J29" t="n">
-        <v>246.8947914238917</v>
+        <v>255.5729347997616</v>
       </c>
       <c r="K29" t="n">
-        <v>401.9772203864438</v>
+        <v>393.2990770105795</v>
       </c>
       <c r="L29" t="n">
         <v>511.6979048475112</v>
       </c>
       <c r="M29" t="n">
-        <v>595.0289062854058</v>
+        <v>595.0289062854057</v>
       </c>
       <c r="N29" t="n">
-        <v>608.4096258680905</v>
+        <v>608.4096258680904</v>
       </c>
       <c r="O29" t="n">
-        <v>564.1607913433983</v>
+        <v>564.1607913433982</v>
       </c>
       <c r="P29" t="n">
         <v>454.8697766745508</v>
       </c>
       <c r="Q29" t="n">
-        <v>306.9020952588987</v>
+        <v>306.9020952588984</v>
       </c>
       <c r="R29" t="n">
-        <v>181.4374088703864</v>
+        <v>181.4374088703862</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.6862070682454</v>
+        <v>68.04996574552186</v>
       </c>
       <c r="K31" t="n">
-        <v>262.1554499994987</v>
+        <v>155.411683654846</v>
       </c>
       <c r="L31" t="n">
-        <v>325.5323095409596</v>
+        <v>359.4375587416309</v>
       </c>
       <c r="M31" t="n">
-        <v>403.741169848663</v>
+        <v>403.7411698486628</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1470197782575</v>
+        <v>400.964736622719</v>
       </c>
       <c r="O31" t="n">
-        <v>358.4609206778189</v>
+        <v>358.4609206778188</v>
       </c>
       <c r="P31" t="n">
-        <v>291.0648616002896</v>
+        <v>291.0648616002894</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.5020289930729</v>
+        <v>69.15907061532116</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>14.53086068225318</v>
+        <v>14.53086068225292</v>
       </c>
       <c r="J32" t="n">
-        <v>246.8947914238917</v>
+        <v>246.8947914238914</v>
       </c>
       <c r="K32" t="n">
-        <v>467.693640259427</v>
+        <v>467.6936402594337</v>
       </c>
       <c r="L32" t="n">
-        <v>511.6979048475111</v>
+        <v>511.6979048475108</v>
       </c>
       <c r="M32" t="n">
-        <v>595.0289062854057</v>
+        <v>595.0289062854054</v>
       </c>
       <c r="N32" t="n">
-        <v>608.4096258680904</v>
+        <v>608.4096258680902</v>
       </c>
       <c r="O32" t="n">
-        <v>564.1607913433982</v>
+        <v>564.1607913433979</v>
       </c>
       <c r="P32" t="n">
-        <v>454.8697766745508</v>
+        <v>454.8697766745505</v>
       </c>
       <c r="Q32" t="n">
-        <v>306.9020952588986</v>
+        <v>306.9020952588983</v>
       </c>
       <c r="R32" t="n">
-        <v>115.7209889974039</v>
+        <v>115.7209889974036</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.04996574552203</v>
+        <v>101.6862070682451</v>
       </c>
       <c r="K34" t="n">
-        <v>262.1554499994987</v>
+        <v>262.1554499994984</v>
       </c>
       <c r="L34" t="n">
-        <v>213.3904610838228</v>
+        <v>375.865162625377</v>
       </c>
       <c r="M34" t="n">
-        <v>403.7411698486629</v>
+        <v>403.7411698486627</v>
       </c>
       <c r="N34" t="n">
-        <v>374.9251095581187</v>
+        <v>400.9647366227189</v>
       </c>
       <c r="O34" t="n">
-        <v>358.4609206778189</v>
+        <v>201.6533091266984</v>
       </c>
       <c r="P34" t="n">
-        <v>291.0648616002895</v>
+        <v>291.0648616002893</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.5020289930728</v>
+        <v>69.15907061532107</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K37" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>185.0315088932865</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882471</v>
+        <v>89.37971366430124</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127271</v>
@@ -37695,22 +37695,22 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J40" t="n">
-        <v>98.355476170827</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>254.2047195462546</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O40" t="n">
         <v>236.9961840848623</v>
@@ -37719,7 +37719,7 @@
         <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266883</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>109.6268955184479</v>
@@ -37941,25 +37941,25 @@
         <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>249.3676628272377</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>186.3638087115528</v>
       </c>
       <c r="Q43" t="n">
         <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057649</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
@@ -38172,31 +38172,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277721</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>243.6959715091265</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
         <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882472</v>
+        <v>90.71201348256801</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
